--- a/data/trans_camb/P24_5_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P24_5_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,97</t>
+          <t>-5,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,46</t>
+          <t>-7,44</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,16</t>
+          <t>-4,49</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-12,33</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-4,96</t>
+          <t>-12,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>-4,27</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-8,91</t>
+          <t>-5,68</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>-11,81</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-5,78</t>
+          <t>12,24</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-1,12</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-8,53</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-2,21</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-6,12</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-7,73</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>8,3</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>1,58</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,63; 0,9</t>
+          <t>-13,71; 1,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 6,55</t>
+          <t>-9,91; 7,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,91; 0,03</t>
+          <t>-16,34; -0,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 7,11</t>
+          <t>-13,63; 4,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,47; -3,4</t>
+          <t>-4,69; 17,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,69; 5,07</t>
+          <t>-7,0; 15,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,0; 5,69</t>
+          <t>-20,39; -2,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 13,25</t>
+          <t>-13,11; 5,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-14,92; -3,38</t>
+          <t>-14,95; 5,18</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 4,13</t>
+          <t>-20,16; -2,15</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-12,23; 0,23</t>
+          <t>2,11; 22,3</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 6,24</t>
+          <t>-12,87; 10,98</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-14,47; -2,45</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-8,27; 4,25</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-12,53; 0,08</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-14,07; -1,5</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>0,83; 15,78</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-6,47; 10,13</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-40,99%</t>
+          <t>-38,07%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-10,86%</t>
+          <t>-5,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-51,23%</t>
+          <t>-51,1%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-21,73%</t>
+          <t>-30,81%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-42,01%</t>
+          <t>53,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-13,96%</t>
+          <t>35,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-16,92%</t>
+          <t>-40,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>-14,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-41,33%</t>
+          <t>-19,36%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-11,67%</t>
+          <t>-40,25%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-26,79%</t>
+          <t>69,82%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>-4,65%</t>
+          <t>-3,62%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-39,56%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-10,25%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-28,36%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-35,82%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>59,93%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>7,66%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-73,31; 14,26</t>
+          <t>-71,4; 17,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-57,3; 60,83</t>
+          <t>-53,78; 73,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-81,95; 9,15</t>
+          <t>-81,63; 10,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-68,62; 74,52</t>
+          <t>-73,13; 48,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-62,55; -13,02</t>
+          <t>-39,01; 330,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,76; 23,51</t>
+          <t>-47,42; 228,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-43,31; 24,21</t>
+          <t>-61,46; -10,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-30,28; 53,64</t>
+          <t>-38,92; 22,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-59,62; -17,34</t>
+          <t>-44,0; 22,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-35,34; 22,94</t>
+          <t>-61,66; -9,48</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-50,23; 1,71</t>
+          <t>7,05; 167,15</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-34,15; 33,77</t>
+          <t>-35,22; 46,38</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-58,19; -11,97</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-33,88; 23,63</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-51,92; 0,39</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-57,19; -7,91</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>3,2; 145,67</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-27,51; 63,12</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-9,18</t>
+          <t>-9,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>-3,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,26</t>
+          <t>-5,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>-10,38</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,45</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,72</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>6,26</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,91</t>
+          <t>2,74</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-3,94</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-1,47</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>3,49</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>-3,88</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,53; -2,55</t>
+          <t>-19,1; -2,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 6,73</t>
+          <t>-11,75; 7,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 3,5</t>
+          <t>-12,87; 4,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 14,82</t>
+          <t>-16,67; 2,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 12,24</t>
+          <t>-7,3; 8,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 8,72</t>
+          <t>-19,72; -1,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 12,8</t>
+          <t>-6,06; 10,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 15,67</t>
+          <t>-6,49; 9,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 1,79</t>
+          <t>-3,72; 12,54</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 6,02</t>
+          <t>-5,73; 12,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 5,82</t>
+          <t>-3,51; 15,14</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 12,87</t>
+          <t>-7,67; 12,45</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-10,38; 1,81</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-6,54; 5,88</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-6,35; 5,97</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-8,14; 4,75</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-2,56; 10,24</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-12,16; 2,89</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-63,93%</t>
+          <t>-64,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,87%</t>
+          <t>-3,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-22,79%</t>
+          <t>-23,53%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>36,64%</t>
+          <t>-35,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>-0,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>-52,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>28,47%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-20,27%</t>
+          <t>18,98%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>12,91%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>24,48%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>32,26%</t>
+          <t>9,4%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-21,48%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>1,18%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,42%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-8,0%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>20,7%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>-16,02%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-88,03; -18,03</t>
+          <t>-85,97; -20,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-54,38; 69,48</t>
+          <t>-55,57; 72,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-64,14; 38,98</t>
+          <t>-61,85; 54,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,36; 142,44</t>
+          <t>-73,92; 27,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,96; 66,07</t>
+          <t>-60,3; 168,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,38; 47,04</t>
+          <t>-78,89; -2,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 69,55</t>
+          <t>-23,94; 54,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 83,53</t>
+          <t>-24,83; 47,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-47,02; 12,03</t>
+          <t>-14,04; 66,7</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-26,84; 40,21</t>
+          <t>-22,0; 65,24</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-28,81; 40,39</t>
+          <t>-12,34; 72,73</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 83,32</t>
+          <t>-21,52; 52,46</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-46,7; 12,13</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-28,31; 40,83</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-29,27; 39,18</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-36,39; 30,55</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-13,9; 77,96</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-42,83; 14,79</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>8,21</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>6,35</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-2,01</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-1,58</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1,94</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>3,1</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>1,31</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 1,46</t>
+          <t>-7,64; 2,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 3,79</t>
+          <t>-6,84; 3,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 5,15</t>
+          <t>-5,19; 4,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 8,29</t>
+          <t>-5,92; 5,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 6,63</t>
+          <t>-5,78; 5,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 3,64</t>
+          <t>-9,43; 2,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 8,78</t>
+          <t>-8,68; 5,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 12,28</t>
+          <t>-8,29; 4,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 2,85</t>
+          <t>-4,77; 8,27</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 2,97</t>
+          <t>-3,2; 11,12</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 5,67</t>
+          <t>0,63; 16,83</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 8,5</t>
+          <t>-2,29; 14,68</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-6,43; 2,31</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-5,87; 2,51</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-3,63; 5,06</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-2,77; 6,39</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>-2,23; 8,71</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>-4,35; 6,67</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-29,18%</t>
+          <t>-23,95%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-15,57%</t>
+          <t>-15,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-2,8%</t>
+          <t>-3,15%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>29,57%</t>
+          <t>-3,41%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,34%</t>
+          <t>-1,31%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-9,6%</t>
+          <t>-26,43%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>-6,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>22,92%</t>
+          <t>-7,34%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-11,68%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-10,59%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>28,37%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>20,61%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-11,44%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-8,99%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>5,2%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>11,03%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>15,91%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>6,13%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1790,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-64,81; 22,27</t>
+          <t>-57,84; 36,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-50,37; 53,13</t>
+          <t>-53,82; 46,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-41,38; 69,23</t>
+          <t>-42,78; 66,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,53; 106,81</t>
+          <t>-48,03; 66,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,6; 29,22</t>
+          <t>-48,47; 81,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,72; 17,04</t>
+          <t>-58,74; 21,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,95; 40,56</t>
+          <t>-30,04; 24,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 55,21</t>
+          <t>-30,06; 21,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-33,05; 18,83</t>
+          <t>-16,87; 37,26</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-31,62; 20,21</t>
+          <t>-11,25; 49,55</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-17,67; 36,88</t>
+          <t>2,07; 69,35</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 57,69</t>
+          <t>-7,24; 56,16</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-32,36; 15,26</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-29,98; 16,82</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-18,46; 32,35</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-13,38; 42,2</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>-10,15; 50,33</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>-18,48; 36,89</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,23</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,98</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>15,28</t>
+          <t>7,34</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>8,61</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>9,9</t>
+          <t>-3,23</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,36</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>3,85</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2,14</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>4,16</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>4,26</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>-1,49</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 6,89</t>
+          <t>-3,4; 8,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 4,72</t>
+          <t>-3,8; 4,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 4,97</t>
+          <t>-2,88; 5,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,92; 11,79</t>
+          <t>-3,89; 4,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 8,23</t>
+          <t>0,18; 11,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,37; 13,03</t>
+          <t>-7,11; 6,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 9,52</t>
+          <t>-3,81; 8,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,72; 22,81</t>
+          <t>1,21; 13,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 5,45</t>
+          <t>-2,53; 9,12</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,02; 8,19</t>
+          <t>1,46; 15,55</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 5,82</t>
+          <t>-4,08; 11,1</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,32; 15,25</t>
+          <t>-12,04; 5,08</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-2,86; 5,63</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-0,14; 7,63</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-1,52; 5,58</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-0,15; 8,37</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-0,76; 9,42</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-6,88; 3,85</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>13,93%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>92,04%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>83,25%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>36,91%</t>
+          <t>-1,98%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>80,82%</t>
+          <t>38,82%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>27,98%</t>
+          <t>45,55%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>75,42%</t>
+          <t>-9,44%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>10,32%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>29,29%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>16,29%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>31,7%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>24,63%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>-6,46%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +2186,92 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-43,8; 135,34</t>
+          <t>-44,65; 179,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-38,48; 99,88</t>
+          <t>-42,87; 87,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-35,03; 102,8</t>
+          <t>-34,11; 112,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12,75; 259,4</t>
+          <t>-47,58; 97,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-20,49; 51,23</t>
+          <t>-0,65; 243,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,14; 80,35</t>
+          <t>-44,05; 67,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 59,01</t>
+          <t>-18,36; 51,3</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>35,21; 138,34</t>
+          <t>5,98; 85,28</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 48,16</t>
+          <t>-12,59; 60,0</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,33; 75,06</t>
+          <t>6,66; 97,84</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 52,05</t>
+          <t>-13,84; 45,53</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>37,48; 137,2</t>
+          <t>-31,69; 16,93</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-19,42; 49,58</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 67,84</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-10,08; 50,79</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-1,3; 74,72</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-4,14; 61,79</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-27,03; 19,02</t>
         </is>
       </c>
     </row>
@@ -1760,62 +2288,92 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,1</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>12,56</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>7,76</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>4,32</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>16,29</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>15,59</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>11,69</t>
+          <t>1,36</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>2,7</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>2,58</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>1,86</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>14,04</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>4,22</t>
         </is>
       </c>
     </row>
@@ -1828,62 +2386,92 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 8,93</t>
+          <t>-2,04; 8,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 7,21</t>
+          <t>-0,91; 7,85</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 3,54</t>
+          <t>-3,4; 3,81</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,96; 12,21</t>
+          <t>-2,97; 5,3</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 5,16</t>
+          <t>6,58; 19,31</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 7,76</t>
+          <t>-0,31; 14,87</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 11,07</t>
+          <t>-6,84; 6,05</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,46; 24,47</t>
+          <t>-4,12; 8,73</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 5,0</t>
+          <t>-2,12; 11,13</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 6,4</t>
+          <t>-5,44; 8,55</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 6,37</t>
+          <t>6,81; 23,94</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>6,59; 16,49</t>
+          <t>-8,2; 9,94</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-3,15; 5,26</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-0,94; 6,55</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-1,16; 6,51</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-2,07; 6,37</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>8,96; 19,78</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>-1,42; 10,15</t>
         </is>
       </c>
     </row>
@@ -1896,62 +2484,92 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>54,13%</t>
+          <t>47,29%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>63,63%</t>
+          <t>64,54%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>126,9%</t>
+          <t>26,94%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-6,87%</t>
+          <t>205,89%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>71,22%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>30,22%</t>
+          <t>-5,02%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>113,93%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>31,49%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>26,78%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>25,83%</t>
+          <t>95,32%</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>122,97%</t>
+          <t>4,44%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>9,11%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>28,43%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>27,12%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>19,58%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>123,51%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>19,89%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +2582,92 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-39,15; 273,16</t>
+          <t>-36,1; 276,73</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 238,57</t>
+          <t>-19,07; 270,81</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-51,17; 124,54</t>
+          <t>-49,88; 145,55</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>4,15; 395,88</t>
+          <t>-48,07; 164,66</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-41,01; 45,86</t>
+          <t>72,25; 488,13</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-25,72; 68,71</t>
+          <t>-3,98; 187,66</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 101,7</t>
+          <t>-39,23; 54,95</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>53,71; 223,75</t>
+          <t>-23,41; 81,34</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-27,37; 64,28</t>
+          <t>-12,48; 102,54</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 83,57</t>
+          <t>-31,35; 74,76</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 81,89</t>
+          <t>34,08; 196,81</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>55,47; 212,26</t>
+          <t>-24,55; 37,14</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-28,81; 66,73</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-8,37; 84,21</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-10,04; 85,82</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-19,21; 87,56</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>65,54; 210,58</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>-6,51; 53,9</t>
         </is>
       </c>
     </row>
@@ -2036,62 +2684,92 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>2,72</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-2,94</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2,95</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>3,8</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>6,56</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>4,89</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>5,66</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>2,14</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>2,24</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>4,87</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
           <t>3,02</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>1,19</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,53</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>5,85</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>3,08</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>2,36</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>5,79</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>1,31</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>2,26</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>1,51</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>5,87</t>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>2,02</t>
         </is>
       </c>
     </row>
@@ -2104,62 +2782,92 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 7,8</t>
+          <t>-1,16; 7,21</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 5,07</t>
+          <t>-2,51; 4,87</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 4,13</t>
+          <t>-2,69; 4,04</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,26; 11,42</t>
+          <t>-1,55; 8,27</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 6,31</t>
+          <t>-5,85; 5,84</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 8,57</t>
+          <t>-9,12; 2,75</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 8,89</t>
+          <t>-6,47; 7,08</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 15,15</t>
+          <t>-3,12; 9,03</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 5,47</t>
+          <t>-3,51; 10,9</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 6,02</t>
+          <t>-0,84; 13,91</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 5,79</t>
+          <t>-3,52; 13,85</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>0,92; 11,51</t>
+          <t>-4,21; 15,05</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-2,88; 5,51</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-2,24; 5,43</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-1,75; 7,41</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 9,48</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>-2,73; 8,88</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>-5,21; 7,57</t>
         </is>
       </c>
     </row>
@@ -2172,62 +2880,92 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>113,0%</t>
+          <t>101,74%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>44,6%</t>
+          <t>40,97%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>218,89%</t>
+          <t>105,37%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
+          <t>-34,47%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>57,28%</t>
+          <t>29,24%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>37,62%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>32,62%</t>
+          <t>64,95%</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>21,85%</t>
+          <t>29,33%</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>84,7%</t>
+          <t>35,63%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>18,43%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>30,84%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>32,37%</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>70,26%</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>25,65%</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>15,82%</t>
         </is>
       </c>
     </row>
@@ -2240,62 +2978,92 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-48,0; 568,19</t>
+          <t>-34,56; 654,77</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-67,94; 510,76</t>
+          <t>-63,36; 435,15</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-71,05; 410,76</t>
+          <t>-71,79; 467,28</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>5,87; 1003,09</t>
+          <t>-49,21; 737,28</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-51,51; 88,23</t>
+          <t>-69,2; 244,45</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-25,55; 113,79</t>
+          <t>-78,83; 53,93</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-34,15; 117,72</t>
+          <t>-49,22; 93,14</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-17,05; 214,31</t>
+          <t>-25,69; 128,83</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-32,97; 105,99</t>
+          <t>-28,53; 141,04</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>-20,84; 118,49</t>
+          <t>-11,12; 173,46</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>-30,76; 112,15</t>
+          <t>-17,93; 108,23</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>5,32; 219,71</t>
+          <t>-20,74; 136,34</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-34,27; 107,29</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-24,1; 107,4</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-23,48; 130,88</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>-1,69; 171,53</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>-17,33; 93,22</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>-30,98; 81,18</t>
         </is>
       </c>
     </row>
@@ -2312,62 +3080,92 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
+          <t>3,79</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>-1,11</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
           <t>-1,21</t>
         </is>
       </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>1,52</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>2,26</t>
-        </is>
-      </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>8,43</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>7,86</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-1,54</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>1,03</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>5,68</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
         </is>
       </c>
     </row>
@@ -2380,62 +3178,92 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 0,24</t>
+          <t>-4,53; 0,57</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 2,43</t>
+          <t>-2,25; 2,92</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 0,9</t>
+          <t>-3,85; 0,77</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,0; 6,71</t>
+          <t>-3,6; 1,83</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 2,09</t>
+          <t>1,0; 7,21</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 4,41</t>
+          <t>-4,16; 2,23</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 5,43</t>
+          <t>-4,22; 1,66</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>4,73; 12,23</t>
+          <t>-1,37; 4,43</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 0,41</t>
+          <t>-0,75; 5,34</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 2,84</t>
+          <t>-0,36; 5,78</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 2,52</t>
+          <t>4,05; 11,44</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>3,83; 8,69</t>
+          <t>-2,09; 5,91</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-3,7; 0,44</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-0,89; 3,02</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-1,38; 2,45</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>-1,09; 3,08</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>3,24; 8,09</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 3,49</t>
         </is>
       </c>
     </row>
@@ -2448,62 +3276,92 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-22,13%</t>
+          <t>-21,15%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-15,16%</t>
+          <t>-15,35%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>45,15%</t>
+          <t>-10,36%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-6,18%</t>
+          <t>47,86%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>-8,65%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>-6,21%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>43,12%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-11,0%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>35,06%</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>42,74%</t>
+          <t>8,21%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-10,73%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>7,14%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>4,21%</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>7,21%</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>37,01%</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>2,91%</t>
         </is>
       </c>
     </row>
@@ -2516,78 +3374,115 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-44,15; 4,28</t>
+          <t>-43,64; 8,25</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-22,88; 33,01</t>
+          <t>-21,72; 39,34</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-37,62; 11,99</t>
+          <t>-36,73; 10,87</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>9,61; 92,35</t>
+          <t>-34,95; 24,92</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-20,11; 11,8</t>
+          <t>9,8; 111,45</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 23,75</t>
+          <t>-28,76; 20,09</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 29,48</t>
+          <t>-20,67; 9,09</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>23,0; 67,19</t>
+          <t>-6,45; 23,96</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-24,68; 3,44</t>
+          <t>-3,95; 28,49</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 21,52</t>
+          <t>-1,73; 32,01</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 18,88</t>
+          <t>17,4; 54,75</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>24,51; 65,31</t>
+          <t>-6,82; 22,48</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-23,61; 3,73</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-5,87; 22,88</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-9,13; 18,62</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>-7,11; 23,16</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>20,05; 56,38</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>-9,48; 18,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
